--- a/Wetlands/DroneFiles/Drone_flights_2023-08-25.xlsx
+++ b/Wetlands/DroneFiles/Drone_flights_2023-08-25.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Wetlands/DroneFiles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://adminliveunc-my.sharepoint.com/personal/kriddie_ad_unc_edu/Documents/Documents/Ecuador2022/Wetlands/DroneFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{09251BD7-3ACB-3143-8063-F4C763908CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:9_{09251BD7-3ACB-3143-8063-F4C763908CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48625B6-85BA-4871-AEE1-5F4FF4CBDB66}"/>
   <bookViews>
-    <workbookView xWindow="16280" yWindow="2000" windowWidth="17920" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15180" yWindow="345" windowWidth="10470" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drone_flights_2023-08-25" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Wetland</t>
   </si>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -590,10 +590,6 @@
     <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -949,15 +945,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -977,7 +973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -997,7 +993,7 @@
         <v>0.35152630000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1017,7 +1013,7 @@
         <v>0.1217371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1033,7 @@
         <v>0.15192149999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1053,7 @@
         <v>0.41212969999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1077,7 +1073,7 @@
         <v>0.46727740000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1097,7 +1093,7 @@
         <v>0.2698855</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1113,7 @@
         <v>0.35135290000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1137,7 +1133,7 @@
         <v>0.40296219999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1157,7 +1153,7 @@
         <v>0.37317539999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1177,7 +1173,7 @@
         <v>0.17748649999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1193,7 @@
         <v>0.4876723</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1217,7 +1213,7 @@
         <v>0.44248739999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -1237,7 +1233,7 @@
         <v>0.39992329999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1257,9 +1253,9 @@
         <v>0.38159850000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="5">
         <v>44754</v>
@@ -1271,926 +1267,959 @@
         <v>0.4284722222222222</v>
       </c>
       <c r="E16" s="4">
-        <v>603</v>
+        <v>603.12</v>
       </c>
       <c r="F16" s="4">
-        <v>0.46395310000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5">
+        <v>0.49802269999999998</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
         <v>44754</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6">
-        <v>0.4284722222222222</v>
-      </c>
-      <c r="E17" s="4">
-        <v>603.12</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0.49802269999999998</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C17" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E17">
+        <v>198.01</v>
+      </c>
+      <c r="F17">
+        <v>0.45538719999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="1">
         <v>44754</v>
       </c>
       <c r="C18" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="D18" s="2">
-        <v>0.51041666666666663</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E18">
-        <v>198.01</v>
+        <v>25.28</v>
       </c>
       <c r="F18">
-        <v>0.45538719999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.61880120000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1">
         <v>44754</v>
       </c>
       <c r="C19" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.48958333333333331</v>
       </c>
       <c r="D19" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.46875</v>
       </c>
       <c r="E19">
-        <v>25.28</v>
+        <v>56.85</v>
       </c>
       <c r="F19">
-        <v>0.61880120000000005</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>13</v>
+        <v>0.64386650000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B20" s="1">
+        <v>44753</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="E20" s="4">
+        <v>31.01</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.3322021</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5">
         <v>44754</v>
       </c>
-      <c r="C20" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="E20">
-        <v>56.85</v>
-      </c>
-      <c r="F20">
-        <v>0.64386650000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44753</v>
-      </c>
       <c r="C21" s="6">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.46180555555555558</v>
-      </c>
-      <c r="E21" s="4">
-        <v>31.01</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0.3322021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>0.54652777777777783</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="G21" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B22" s="5">
-        <v>44754</v>
+        <v>44827</v>
       </c>
       <c r="C22" s="6">
-        <v>0.54652777777777783</v>
+        <v>0.50972222222222219</v>
       </c>
       <c r="D22" s="6"/>
       <c r="G22" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
         <v>44827</v>
       </c>
-      <c r="C23" s="6">
-        <v>0.50972222222222219</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="G23" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C23" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.55347222222222225</v>
+      </c>
+      <c r="E23">
+        <v>250.59</v>
+      </c>
+      <c r="F23">
+        <v>0.26640819999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24" s="1">
         <v>44827</v>
       </c>
       <c r="C24" s="2">
-        <v>0.55347222222222225</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="D24" s="2">
-        <v>0.55347222222222225</v>
+        <v>0.5395833333333333</v>
       </c>
       <c r="E24">
-        <v>250.59</v>
+        <v>497.71</v>
       </c>
       <c r="F24">
-        <v>0.26640819999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.29433900000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1">
         <v>44827</v>
       </c>
       <c r="C25" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="D25" s="2">
-        <v>0.5395833333333333</v>
+        <v>0.53125</v>
       </c>
       <c r="E25">
-        <v>497.71</v>
+        <v>24.33</v>
       </c>
       <c r="F25">
-        <v>0.29433900000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.2250576</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1">
-        <v>44827</v>
+        <v>44831</v>
       </c>
       <c r="C26" s="2">
-        <v>0.53125</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="D26" s="2">
-        <v>0.53125</v>
+        <v>0.57986111111111105</v>
       </c>
       <c r="E26">
-        <v>24.33</v>
+        <v>489.99</v>
       </c>
       <c r="F26">
-        <v>0.2250576</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.41871720000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1">
         <v>44831</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="2">
+        <v>0.50347222222222221</v>
+      </c>
       <c r="D27" s="2">
-        <v>0.57986111111111105</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="E27">
-        <v>489.99</v>
+        <v>174.83</v>
       </c>
       <c r="F27">
-        <v>0.41871720000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.41273130000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1">
         <v>44831</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="2">
+        <v>0.51180555555555551</v>
+      </c>
       <c r="D28" s="2">
-        <v>0.50347222222222221</v>
+        <v>0.51180555555555551</v>
       </c>
       <c r="E28">
-        <v>174.83</v>
+        <v>25.14</v>
       </c>
       <c r="F28">
-        <v>0.41273130000000002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.61310089999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" s="1">
         <v>44831</v>
       </c>
-      <c r="C29" s="1"/>
+      <c r="C29" s="2">
+        <v>0.49583333333333335</v>
+      </c>
       <c r="D29" s="2">
-        <v>0.51180555555555551</v>
+        <v>0.49583333333333335</v>
       </c>
       <c r="E29">
-        <v>25.14</v>
+        <v>48.84</v>
       </c>
       <c r="F29">
-        <v>0.61310089999999995</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1">
+        <v>0.55651519999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5">
         <v>44831</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2">
-        <v>0.49583333333333335</v>
-      </c>
-      <c r="E30">
-        <v>48.84</v>
-      </c>
-      <c r="F30">
-        <v>0.55651519999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="5">
-        <v>44831</v>
-      </c>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C30" s="6">
+        <v>0.56458333333333333</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.56458333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1">
+        <v>44853</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E31">
+        <v>166</v>
+      </c>
+      <c r="F31">
+        <v>0.42328569999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B32" s="1">
         <v>44853</v>
       </c>
       <c r="C32" s="2">
-        <v>0.54999999999999993</v>
+        <v>0.56111111111111112</v>
       </c>
       <c r="D32" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.55902777777777779</v>
       </c>
       <c r="E32">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="F32">
-        <v>0.42328569999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.60370900000000005</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1">
         <v>44853</v>
       </c>
       <c r="C33" s="2">
-        <v>0.56111111111111112</v>
+        <v>0.54999999999999993</v>
       </c>
       <c r="D33" s="2">
-        <v>0.55902777777777779</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E33">
-        <v>24</v>
-      </c>
-      <c r="F33">
-        <v>0.60370900000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0.56788539999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B34" s="1">
-        <v>44853</v>
+        <v>44860</v>
       </c>
       <c r="C34" s="2">
-        <v>0.54999999999999993</v>
+        <v>0.52013888888888882</v>
       </c>
       <c r="D34" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E34">
-        <v>58</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.56788539999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+      <c r="F34">
+        <v>0.44116179999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B35" s="1">
         <v>44860</v>
       </c>
       <c r="C35" s="2">
-        <v>0.52013888888888882</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="D35" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="E35">
-        <v>571</v>
+        <v>184.1</v>
       </c>
       <c r="F35">
-        <v>0.44116179999999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.1920077</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B36" s="1">
         <v>44860</v>
       </c>
       <c r="C36" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="D36" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="E36">
-        <v>184.1</v>
+        <v>521</v>
       </c>
       <c r="F36">
-        <v>0.1920077</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.335812</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B37" s="1">
         <v>44860</v>
       </c>
       <c r="C37" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.55347222222222225</v>
       </c>
       <c r="D37" s="2">
-        <v>0.56944444444444442</v>
+        <v>0.55208333333333337</v>
       </c>
       <c r="E37">
-        <v>521</v>
+        <v>27.4</v>
       </c>
       <c r="F37">
-        <v>0.335812</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.25141799999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B38" s="1">
-        <v>44860</v>
+        <v>44866</v>
       </c>
       <c r="C38" s="2">
-        <v>0.55347222222222225</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="D38" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.3833333333333333</v>
       </c>
       <c r="E38">
-        <v>27.4</v>
+        <v>5378</v>
       </c>
       <c r="F38">
-        <v>0.25141799999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.31953690000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="1">
         <v>44866</v>
       </c>
       <c r="C39" s="2">
-        <v>0.3833333333333333</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="D39" s="2">
-        <v>0.3833333333333333</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="E39">
-        <v>5378</v>
+        <v>4197</v>
       </c>
       <c r="F39">
-        <v>0.31953690000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.36358980000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
         <v>44866</v>
       </c>
       <c r="C40" s="2">
-        <v>0.3923611111111111</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D40" s="2">
-        <v>0.3923611111111111</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E40">
-        <v>4197</v>
+        <v>850</v>
       </c>
       <c r="F40">
-        <v>0.36358980000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.12114560000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B41" s="1">
         <v>44866</v>
       </c>
       <c r="C41" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="D41" s="2">
-        <v>0.40277777777777773</v>
+        <v>0.43402777777777773</v>
       </c>
       <c r="E41">
-        <v>850</v>
+        <v>27</v>
       </c>
       <c r="F41">
-        <v>0.12114560000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.18079049999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B42" s="1">
         <v>44866</v>
       </c>
       <c r="C42" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="D42" s="2">
-        <v>0.43402777777777773</v>
+        <v>0.44791666666666669</v>
       </c>
       <c r="E42">
-        <v>27</v>
+        <v>529</v>
       </c>
       <c r="F42">
-        <v>0.18079049999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.42812939999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43" s="1">
-        <v>44866</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>44885</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.43263888888888885</v>
+      </c>
       <c r="D43" s="2">
-        <v>0.44791666666666669</v>
+        <v>0.4291666666666667</v>
       </c>
       <c r="E43">
-        <v>529</v>
+        <v>558</v>
       </c>
       <c r="F43">
-        <v>0.42812939999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.42835380000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B44" s="1">
         <v>44885</v>
       </c>
       <c r="C44" s="2">
-        <v>0.43263888888888885</v>
+        <v>0.45555555555555555</v>
       </c>
       <c r="D44" s="2">
-        <v>0.4291666666666667</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="E44">
-        <v>558</v>
+        <v>118.82</v>
       </c>
       <c r="F44">
-        <v>0.42835380000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.10440140000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45" s="1">
         <v>44885</v>
       </c>
       <c r="C45" s="2">
-        <v>0.45555555555555555</v>
+        <v>0.47291666666666665</v>
       </c>
       <c r="D45" s="2">
-        <v>0.45208333333333334</v>
+        <v>0.46875</v>
       </c>
       <c r="E45">
-        <v>118.82</v>
+        <v>118</v>
       </c>
       <c r="F45">
-        <v>0.10440140000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.1793526</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46" s="1">
         <v>44885</v>
       </c>
       <c r="C46" s="2">
-        <v>0.47291666666666665</v>
+        <v>0.54513888888888895</v>
       </c>
       <c r="D46" s="2">
-        <v>0.46875</v>
+        <v>0.54305555555555551</v>
       </c>
       <c r="E46">
-        <v>118</v>
+        <v>152</v>
       </c>
       <c r="F46">
-        <v>0.1793526</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.40207500000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B47" s="1">
         <v>44885</v>
       </c>
       <c r="C47" s="2">
-        <v>0.54513888888888895</v>
+        <v>0.46875</v>
       </c>
       <c r="D47" s="2">
-        <v>0.54305555555555551</v>
+        <v>0.46875</v>
       </c>
       <c r="E47">
-        <v>152</v>
-      </c>
-      <c r="F47">
-        <v>0.40207500000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="9">
+        <v>55</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.56841059999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
         <v>44885</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10">
-        <v>0.46875</v>
-      </c>
-      <c r="E48" s="8">
-        <v>55</v>
-      </c>
-      <c r="F48" s="11">
-        <v>0.56841059999999999</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C48" s="2">
+        <v>0.48125000000000001</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E48">
+        <v>29.22</v>
+      </c>
+      <c r="F48">
+        <v>0.245585</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B49" s="1">
         <v>44885</v>
       </c>
       <c r="C49" s="2">
-        <v>0.48125000000000001</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="D49" s="2">
-        <v>0.47916666666666669</v>
+        <v>0.53125</v>
       </c>
       <c r="E49">
-        <v>29.22</v>
-      </c>
-      <c r="F49">
-        <v>0.245585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="9">
-        <v>44885</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0.53125</v>
-      </c>
-      <c r="E50" s="8">
         <v>22</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F49" s="3">
         <v>0.58809330000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>44888</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="E50">
+        <v>5385</v>
+      </c>
+      <c r="F50">
+        <v>0.34320509999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B51" s="1">
         <v>44888</v>
       </c>
-      <c r="C51" s="1"/>
+      <c r="C51" s="2">
+        <v>0.5625</v>
+      </c>
       <c r="D51" s="2">
-        <v>0.55208333333333337</v>
+        <v>0.5625</v>
       </c>
       <c r="E51">
-        <v>5385</v>
+        <v>3917</v>
       </c>
       <c r="F51">
-        <v>0.34320509999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.25858680000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" s="1">
         <v>44888</v>
       </c>
-      <c r="C52" s="1"/>
+      <c r="C52" s="2">
+        <v>0.56666666666666665</v>
+      </c>
       <c r="D52" s="2">
-        <v>0.5625</v>
+        <v>0.56666666666666665</v>
       </c>
       <c r="E52">
-        <v>3917</v>
+        <v>877</v>
       </c>
       <c r="F52">
-        <v>0.25858680000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.14386550000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B53" s="1">
         <v>44888</v>
       </c>
-      <c r="C53" s="1"/>
+      <c r="C53" s="2">
+        <v>0.59375</v>
+      </c>
       <c r="D53" s="2">
-        <v>0.56666666666666665</v>
+        <v>0.59375</v>
       </c>
       <c r="E53">
-        <v>877</v>
+        <v>268</v>
       </c>
       <c r="F53">
-        <v>0.14386550000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="1">
+        <v>0.26992630000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="5">
         <v>44888</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="E54">
-        <v>268</v>
-      </c>
-      <c r="F54">
-        <v>0.26992630000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B55" s="5">
-        <v>44888</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6">
+      <c r="C54" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="D54" s="6">
         <v>0.56458333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="1">
+        <v>44897</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E55">
+        <v>150.99</v>
+      </c>
+      <c r="F55">
+        <v>0.3895015</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B56" s="1">
         <v>44897</v>
       </c>
-      <c r="C56" s="1"/>
+      <c r="C56" s="2">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D56" s="2">
         <v>0.48958333333333331</v>
       </c>
       <c r="E56">
-        <v>150.99</v>
+        <v>21.31</v>
       </c>
       <c r="F56">
-        <v>0.3895015</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.5872503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" s="1">
         <v>44897</v>
       </c>
-      <c r="C57" s="1"/>
+      <c r="C57" s="2">
+        <v>0.48958333333333331</v>
+      </c>
       <c r="D57" s="2">
         <v>0.48958333333333331</v>
       </c>
       <c r="E57">
-        <v>21.31</v>
-      </c>
-      <c r="F57">
-        <v>0.5872503</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" s="1">
+        <v>53.43</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.55549040000000005</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="5">
         <v>44897</v>
       </c>
-      <c r="C58" s="1"/>
-      <c r="D58" s="2">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="E58">
-        <v>53.43</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.55549040000000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="5">
-        <v>44897</v>
-      </c>
-      <c r="C59" s="6">
+      <c r="C58" s="6">
         <v>0.40833333333333338</v>
       </c>
-      <c r="D59" s="6">
+      <c r="D58" s="6">
         <v>0.40625</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E58" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F58" s="7">
         <v>0.14352899999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1">
+        <v>44954</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.61805555555555558</v>
+      </c>
+      <c r="E59">
+        <v>5298.59</v>
+      </c>
+      <c r="F59">
+        <v>0.34181830000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B60" s="1">
         <v>44954</v>
       </c>
       <c r="C60" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="D60" s="2">
-        <v>0.61805555555555558</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="E60">
-        <v>5298.59</v>
+        <v>2691.78</v>
       </c>
       <c r="F60">
-        <v>0.34181830000000002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>-2.0063469999999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" s="1">
         <v>44954</v>
       </c>
       <c r="C61" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="D61" s="2">
-        <v>0.6333333333333333</v>
+        <v>0.63888888888888895</v>
       </c>
       <c r="E61">
-        <v>2691.78</v>
+        <v>842.93</v>
       </c>
       <c r="F61">
-        <v>-2.0063469999999999E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.14583360000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B62" s="1">
         <v>44954</v>
       </c>
       <c r="C62" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.56944444444444442</v>
       </c>
       <c r="D62" s="2">
-        <v>0.63888888888888895</v>
+        <v>0.57638888888888895</v>
       </c>
       <c r="E62">
-        <v>842.93</v>
+        <v>121.76</v>
       </c>
       <c r="F62">
-        <v>0.14583360000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+        <v>0.2348471</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" s="5">
+        <v>44954</v>
+      </c>
+      <c r="C63" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="D63" s="6">
+        <v>0.65625</v>
+      </c>
+      <c r="E63" s="4">
+        <v>242.98</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0.189805</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1">
+        <v>44975</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>-8.7555240000000006E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>7</v>
-      </c>
-      <c r="B63" s="1">
-        <v>44954</v>
-      </c>
-      <c r="C63" s="2">
-        <v>0.56944444444444442</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.57638888888888895</v>
-      </c>
-      <c r="E63">
-        <v>121.76</v>
-      </c>
-      <c r="F63">
-        <v>0.2348471</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B64" s="5">
-        <v>44954</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="6">
-        <v>0.65625</v>
-      </c>
-      <c r="E64" s="4">
-        <v>242.98</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0.189805</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>5</v>
       </c>
       <c r="B65" s="1">
         <v>44975</v>
@@ -2205,52 +2234,32 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>-8.7555240000000006E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6.3917570000000007E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B66" s="1">
         <v>44975</v>
       </c>
       <c r="C66" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="D66" s="2">
-        <v>0.58333333333333337</v>
+        <v>0.59375</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>6.3917570000000007E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="1">
-        <v>44975</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.59375</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
         <v>7.6725559999999998E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F67">
-    <sortCondition ref="B2:B67"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F66">
+    <sortCondition ref="B2:B66"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
